--- a/src/test/resources/excel/testdata.xlsx
+++ b/src/test/resources/excel/testdata.xlsx
@@ -9,12 +9,13 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="7200" yWindow="2340" windowWidth="19680" windowHeight="7720" activeTab="1"/>
+    <workbookView xWindow="7200" yWindow="2340" windowWidth="19680" windowHeight="7720" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="ContactsPageTest" sheetId="2" r:id="rId1"/>
     <sheet name="DealsPageTest" sheetId="4" r:id="rId2"/>
-    <sheet name="LoginTest" sheetId="3" r:id="rId3"/>
+    <sheet name="TaskPageTest" sheetId="5" r:id="rId3"/>
+    <sheet name="LoginTest" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>firstname</t>
   </si>
@@ -71,6 +72,18 @@
   </si>
   <si>
     <t>Amit kumar</t>
+  </si>
+  <si>
+    <t>title</t>
+  </si>
+  <si>
+    <t>type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rohit </t>
+  </si>
+  <si>
+    <t>Technical Support</t>
   </si>
 </sst>
 </file>
@@ -444,7 +457,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -466,6 +479,37 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B4"/>
   <sheetViews>
